--- a/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8086</v>
+        <v>8530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01577802628311735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00420372342503516</v>
+        <v>0.00424431896576168</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04759389741396196</v>
+        <v>0.0502070526972383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>3756</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1006</v>
+        <v>920</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8954</v>
+        <v>8730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03862945485580346</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01035010825868165</v>
+        <v>0.009464799807546291</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0920942103641577</v>
+        <v>0.08978239613191588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>6437</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2662</v>
+        <v>2743</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13023</v>
+        <v>11952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02409560143245407</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00996407350869029</v>
+        <v>0.01026805933052169</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04875063327742581</v>
+        <v>0.04474153146516474</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>167218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161813</v>
+        <v>161369</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169185</v>
+        <v>169178</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9842219737168828</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9524061025860394</v>
+        <v>0.9497929473027595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957962765749648</v>
+        <v>0.9957556810342383</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -833,19 +833,19 @@
         <v>93475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88277</v>
+        <v>88501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96225</v>
+        <v>96311</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9613705451441965</v>
+        <v>0.9613705451441964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9079057896358423</v>
+        <v>0.9102176038680843</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9896498917413185</v>
+        <v>0.9905352001924542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>340</v>
@@ -854,19 +854,19 @@
         <v>260693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254107</v>
+        <v>255178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264468</v>
+        <v>264387</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9759043985675458</v>
+        <v>0.975904398567546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9512493667225744</v>
+        <v>0.9552584685348353</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900359264913098</v>
+        <v>0.9897319406694782</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>9993</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4127</v>
+        <v>4008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21532</v>
+        <v>20167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03845619944665503</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01588203632405511</v>
+        <v>0.0154255139444187</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08286055078795956</v>
+        <v>0.07760883465338279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5792</v>
+        <v>6711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01467974336813765</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04713525913708198</v>
+        <v>0.05460885599520617</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1000,19 +1000,19 @@
         <v>11797</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6022</v>
+        <v>5341</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22403</v>
+        <v>22634</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03082248568563493</v>
+        <v>0.03082248568563494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01573287243309802</v>
+        <v>0.01395426252539048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05853279250930583</v>
+        <v>0.05913685458685383</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>249863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>238324</v>
+        <v>239689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>255729</v>
+        <v>255848</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9615438005533451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9171394492120404</v>
+        <v>0.9223911653466171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9841179636759452</v>
+        <v>0.9845744860555814</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -1050,16 +1050,16 @@
         <v>121079</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117091</v>
+        <v>116172</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>122883</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9853202566318624</v>
+        <v>0.9853202566318623</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9528647408629174</v>
+        <v>0.9453911440047936</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1071,19 +1071,19 @@
         <v>370942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>360336</v>
+        <v>360105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>376717</v>
+        <v>377398</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9691775143143649</v>
+        <v>0.9691775143143651</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.941467207490694</v>
+        <v>0.9408631454131465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9842671275669019</v>
+        <v>0.9860457374746096</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>16235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9685</v>
+        <v>9566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25470</v>
+        <v>24929</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08765510389935019</v>
+        <v>0.0876551038993502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05229216829203075</v>
+        <v>0.05164918713593148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1375216672270067</v>
+        <v>0.1345983636257113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4744</v>
+        <v>5760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01062786384921993</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05343083136901453</v>
+        <v>0.06488015699607314</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1217,19 +1217,19 @@
         <v>17178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10391</v>
+        <v>10053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27005</v>
+        <v>26426</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06269631498661915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03792346279588663</v>
+        <v>0.03668983299621661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09856083864319436</v>
+        <v>0.09645015381488202</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>168975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>159740</v>
+        <v>160281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175525</v>
+        <v>175644</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9123448961006497</v>
+        <v>0.9123448961006498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8624783327729932</v>
+        <v>0.8654016363742886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9477078317079694</v>
+        <v>0.9483508128640685</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -1267,16 +1267,16 @@
         <v>87836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>84036</v>
+        <v>83020</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>88780</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9893721361507802</v>
+        <v>0.9893721361507801</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9465691686309855</v>
+        <v>0.9351198430039269</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>256811</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>246984</v>
+        <v>247563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>263598</v>
+        <v>263936</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9373036850133808</v>
+        <v>0.9373036850133809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9014391613568058</v>
+        <v>0.903549846185118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9620765372041132</v>
+        <v>0.9633101670037835</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>11845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5074</v>
+        <v>5004</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26995</v>
+        <v>27289</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05868127815699326</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02513552616172276</v>
+        <v>0.02478966597484589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1337349980810522</v>
+        <v>0.1351908920226314</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1413,19 +1413,19 @@
         <v>11578</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5861</v>
+        <v>5995</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21264</v>
+        <v>20190</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08411761437815317</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04258094778343604</v>
+        <v>0.04355609146741628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1544898150583033</v>
+        <v>0.1466904599645231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1434,19 +1434,19 @@
         <v>23423</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13937</v>
+        <v>13694</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40107</v>
+        <v>39348</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0689936874112534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04105257696412981</v>
+        <v>0.04033802440357909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1181385924102931</v>
+        <v>0.115902297165864</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>190010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174860</v>
+        <v>174566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196781</v>
+        <v>196851</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9413187218430069</v>
+        <v>0.9413187218430066</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8662650019189476</v>
+        <v>0.8648091079773685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9748644738382772</v>
+        <v>0.9752103340251538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -1484,19 +1484,19 @@
         <v>126059</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116373</v>
+        <v>117447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131776</v>
+        <v>131642</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9158823856218469</v>
+        <v>0.915882385621847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8455101849416967</v>
+        <v>0.853309540035477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9574190522165639</v>
+        <v>0.9564439085325838</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>317</v>
@@ -1505,19 +1505,19 @@
         <v>316069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>299385</v>
+        <v>300144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325555</v>
+        <v>325798</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9310063125887466</v>
+        <v>0.9310063125887468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8818614075897068</v>
+        <v>0.8840977028341349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9589474230358702</v>
+        <v>0.9596619755964207</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7650</v>
+        <v>8429</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0809780327794037</v>
+        <v>0.08097803277940369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01961105487571478</v>
+        <v>0.01985347013373311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2240890939329565</v>
+        <v>0.246923628214319</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2837</v>
+        <v>2737</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07824866910947437</v>
+        <v>0.07824866910947438</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2616237608521266</v>
+        <v>0.2523783200773209</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1651,19 +1651,19 @@
         <v>3613</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1300</v>
+        <v>1076</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9095</v>
+        <v>8371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0803200148299844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02889765569008394</v>
+        <v>0.02393143274619909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2021930407131331</v>
+        <v>0.1860941048244674</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>31373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26487</v>
+        <v>25708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33468</v>
+        <v>33459</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9190219672205963</v>
+        <v>0.9190219672205964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7759109060670427</v>
+        <v>0.7530763717856813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9803889451242852</v>
+        <v>0.9801465298662668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1701,7 +1701,7 @@
         <v>9996</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8008</v>
+        <v>8108</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>10845</v>
@@ -1710,7 +1710,7 @@
         <v>0.9217513308905256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7383762391478719</v>
+        <v>0.7476216799226786</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1722,19 +1722,19 @@
         <v>41369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35887</v>
+        <v>36611</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43682</v>
+        <v>43906</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9196799851700155</v>
+        <v>0.9196799851700156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.797806959286867</v>
+        <v>0.8139058951755327</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.971102344309916</v>
+        <v>0.9760685672538009</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>27288</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18826</v>
+        <v>18998</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36954</v>
+        <v>37084</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1674373155192578</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1155144721223774</v>
+        <v>0.1165719400562852</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2267505754497768</v>
+        <v>0.2275473227218055</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1847,19 +1847,19 @@
         <v>7137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3474</v>
+        <v>3494</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13092</v>
+        <v>13416</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07268055587409392</v>
+        <v>0.07268055587409393</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03538122633183263</v>
+        <v>0.03558036798656371</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1333235481758447</v>
+        <v>0.1366274788360495</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1868,19 +1868,19 @@
         <v>34425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24729</v>
+        <v>25229</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45205</v>
+        <v>46003</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1318105626865826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09468761240852409</v>
+        <v>0.09659993363985901</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1730867575479108</v>
+        <v>0.176144611526067</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>135685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126019</v>
+        <v>125889</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>144147</v>
+        <v>143975</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8325626844807423</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7732494245502232</v>
+        <v>0.7724526772781956</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8844855278776225</v>
+        <v>0.8834280599437149</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>139</v>
@@ -1918,19 +1918,19 @@
         <v>91057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85102</v>
+        <v>84778</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94720</v>
+        <v>94700</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9273194441259062</v>
+        <v>0.9273194441259061</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8666764518241561</v>
+        <v>0.8633725211639506</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9646187736681674</v>
+        <v>0.9644196320134366</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>320</v>
@@ -1939,19 +1939,19 @@
         <v>226742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>215962</v>
+        <v>215164</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>236438</v>
+        <v>235938</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8681894373134174</v>
+        <v>0.8681894373134175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8269132424520892</v>
+        <v>0.8238553884739335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9053123875914759</v>
+        <v>0.9034000663601411</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>43913</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31599</v>
+        <v>31218</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59888</v>
+        <v>59644</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1268543086413631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09128331550259594</v>
+        <v>0.09018168579732172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1730041030927391</v>
+        <v>0.1722976332333446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2064,19 +2064,19 @@
         <v>19647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12250</v>
+        <v>12218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32895</v>
+        <v>30808</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08408965458518233</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05243202825872939</v>
+        <v>0.05229187213795295</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1407908489687081</v>
+        <v>0.1318597046871081</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -2085,19 +2085,19 @@
         <v>63560</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48012</v>
+        <v>48459</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82038</v>
+        <v>83229</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.10962169235968</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08280714693752195</v>
+        <v>0.08357816837741636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1414906404079272</v>
+        <v>0.1435449331204998</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>302254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>286279</v>
+        <v>286523</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>314568</v>
+        <v>314949</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8731456913586368</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8269958969072608</v>
+        <v>0.8277023667666559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9087166844974044</v>
+        <v>0.9098183142026788</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>266</v>
@@ -2135,19 +2135,19 @@
         <v>213996</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>200748</v>
+        <v>202835</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>221393</v>
+        <v>221425</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9159103454148175</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.859209151031292</v>
+        <v>0.8681402953128918</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9475679717412713</v>
+        <v>0.9477081278620471</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>517</v>
@@ -2156,19 +2156,19 @@
         <v>516250</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>497772</v>
+        <v>496581</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>531798</v>
+        <v>531351</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8903783076403202</v>
+        <v>0.8903783076403201</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.858509359592073</v>
+        <v>0.8564550668794996</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.917192853062478</v>
+        <v>0.9164218316225837</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>46764</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32946</v>
+        <v>33540</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62827</v>
+        <v>62191</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1496441180580723</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.10542680034234</v>
+        <v>0.1073269217165802</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2010469827323349</v>
+        <v>0.1990118721608164</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -2281,19 +2281,19 @@
         <v>18473</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11999</v>
+        <v>11683</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27970</v>
+        <v>28502</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1606978572072295</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1043799421459457</v>
+        <v>0.1016333107559053</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2433148975867156</v>
+        <v>0.2479429681473768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -2302,19 +2302,19 @@
         <v>65236</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49759</v>
+        <v>50460</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>84333</v>
+        <v>82482</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1526167679362347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1164082605217894</v>
+        <v>0.1180489899622494</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1972909140478968</v>
+        <v>0.1929620101496914</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>265735</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>249672</v>
+        <v>250308</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>279553</v>
+        <v>278959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8503558819419277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7989530172676652</v>
+        <v>0.8009881278391838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8945731996576601</v>
+        <v>0.89267307828342</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -2352,19 +2352,19 @@
         <v>96481</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>86984</v>
+        <v>86452</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102955</v>
+        <v>103271</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8393021427927705</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7566851024132845</v>
+        <v>0.7520570318526233</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8956200578540544</v>
+        <v>0.8983666892440946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>379</v>
@@ -2373,19 +2373,19 @@
         <v>362217</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>343120</v>
+        <v>344971</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>377694</v>
+        <v>376993</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8473832320637652</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8027090859521031</v>
+        <v>0.8070379898503084</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8835917394782103</v>
+        <v>0.8819510100377506</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>161482</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>138206</v>
+        <v>136227</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>190216</v>
+        <v>191098</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09654572999107143</v>
+        <v>0.09654572999107146</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08262968922257473</v>
+        <v>0.08144621024209657</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1137248957514352</v>
+        <v>0.1142523877741546</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -2498,19 +2498,19 @@
         <v>64186</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51081</v>
+        <v>49686</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>82548</v>
+        <v>82757</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07098942938712387</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05649558865560381</v>
+        <v>0.05495262141314547</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09129741785422876</v>
+        <v>0.09152901146971104</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>213</v>
@@ -2519,19 +2519,19 @@
         <v>225668</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>194908</v>
+        <v>197331</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>258344</v>
+        <v>258271</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08757822623834077</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07564053034771717</v>
+        <v>0.07658115204466309</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1002592540849506</v>
+        <v>0.100230720776468</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>1511115</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1482381</v>
+        <v>1481499</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1534391</v>
+        <v>1536370</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9034542700089285</v>
+        <v>0.9034542700089288</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8862751042485649</v>
+        <v>0.8857476122258453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9173703107774254</v>
+        <v>0.9185537897579034</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1132</v>
@@ -2569,19 +2569,19 @@
         <v>839979</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>821617</v>
+        <v>821408</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>853084</v>
+        <v>854479</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.929010570612876</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9087025821457713</v>
+        <v>0.9084709885302884</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9435044113443962</v>
+        <v>0.9450473785868545</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2566</v>
@@ -2590,19 +2590,19 @@
         <v>2351094</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2318418</v>
+        <v>2318491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2381854</v>
+        <v>2379431</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9124217737616592</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8997407459150496</v>
+        <v>0.8997692792235319</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9243594696522828</v>
+        <v>0.9234188479553369</v>
       </c>
     </row>
     <row r="30">
